--- a/Assets/StreamingAssets/Table/SkillInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/SkillInfo-.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7616F91-6CA3-49AB-BB43-92FB11D990BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C109F6-F145-4FD4-97C0-0E976F495653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1380" windowWidth="22035" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="AttackSkill" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillInfo!$A$9:$X$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillInfo!$A$9:$Y$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="178">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,14 @@
   </si>
   <si>
     <t>技能分类(empty、攻、效、防、避)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,13 +1039,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1046,25 +1054,26 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="26.625" customWidth="1"/>
-    <col min="17" max="17" width="15.875" customWidth="1"/>
-    <col min="20" max="20" width="10.875" customWidth="1"/>
-    <col min="21" max="21" width="19.375" customWidth="1"/>
-    <col min="22" max="22" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="26.625" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="21" max="21" width="10.875" customWidth="1"/>
+    <col min="22" max="22" width="19.375" customWidth="1"/>
+    <col min="23" max="23" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -1078,63 +1087,66 @@
         <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>75</v>
@@ -1157,13 +1169,13 @@
         <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>98</v>
@@ -1175,23 +1187,23 @@
         <v>98</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="T2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,10 +1213,13 @@
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1218,63 +1233,66 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
@@ -1296,15 +1314,15 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1">
         <v>0</v>
       </c>
@@ -1314,15 +1332,18 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1002</v>
       </c>
@@ -1344,15 +1365,15 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1">
         <v>0</v>
       </c>
@@ -1362,15 +1383,18 @@
       <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1003</v>
       </c>
@@ -1392,15 +1416,15 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
@@ -1410,15 +1434,18 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1004</v>
       </c>
@@ -1440,15 +1467,15 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
@@ -1458,15 +1485,18 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1005</v>
       </c>
@@ -1488,15 +1518,15 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
@@ -1506,15 +1536,18 @@
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="1"/>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1006</v>
       </c>
@@ -1536,15 +1569,15 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
@@ -1554,15 +1587,18 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1007</v>
       </c>
@@ -1584,15 +1620,15 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
@@ -1602,14 +1638,17 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1008</v>
       </c>
@@ -1631,15 +1670,15 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
@@ -1649,15 +1688,18 @@
       <c r="Q11" s="1">
         <v>0</v>
       </c>
-      <c r="R11" s="1"/>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1009</v>
       </c>
@@ -1679,15 +1721,15 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
+      <c r="N12" s="1"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
@@ -1697,15 +1739,18 @@
       <c r="Q12" s="1">
         <v>0</v>
       </c>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2001</v>
       </c>
@@ -1719,61 +1764,64 @@
         <v>87</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
         <v>10</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>98</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
       <c r="P13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
         <v>10</v>
       </c>
-      <c r="T13" s="1">
-        <v>1</v>
-      </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2002</v>
       </c>
@@ -1790,32 +1838,32 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="1">
-        <v>2</v>
-      </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>98</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
@@ -1826,22 +1874,25 @@
         <v>1</v>
       </c>
       <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
         <v>8</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>10</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>5</v>
       </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
       <c r="V14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2003</v>
       </c>
@@ -1855,49 +1906,52 @@
         <v>125</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
       <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>50</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
       <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>95</v>
       </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
       <c r="O15" s="1">
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
         <v>2</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2004</v>
       </c>
@@ -1911,35 +1965,35 @@
         <v>144</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
         <v>25</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="1">
-        <v>3</v>
-      </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>95</v>
       </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
       <c r="O16" s="1">
         <v>1</v>
       </c>
@@ -1947,25 +2001,28 @@
         <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1">
         <v>4</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>25</v>
       </c>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2005</v>
       </c>
@@ -1979,40 +2036,40 @@
         <v>145</v>
       </c>
       <c r="E17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
         <v>20</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
       <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>40</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>4</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
       <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
         <v>95</v>
       </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
       <c r="O17" s="1">
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
         <v>2</v>
@@ -2021,19 +2078,22 @@
         <v>2</v>
       </c>
       <c r="S17" s="1">
+        <v>2</v>
+      </c>
+      <c r="T17" s="1">
         <v>20</v>
       </c>
-      <c r="T17" s="1">
-        <v>2</v>
-      </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2006</v>
       </c>
@@ -2047,35 +2107,35 @@
         <v>147</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
         <v>20</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
         <v>100</v>
       </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
@@ -2083,25 +2143,28 @@
         <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="1">
+        <v>2</v>
+      </c>
+      <c r="T18" s="1">
         <v>20</v>
       </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2007</v>
       </c>
@@ -2115,61 +2178,64 @@
         <v>148</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
       <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>100</v>
       </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
         <v>98</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
       <c r="O19" s="1">
         <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
         <v>6</v>
       </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
       <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
         <v>64</v>
       </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
       <c r="V19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3001</v>
       </c>
@@ -2183,55 +2249,58 @@
         <v>69</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
         <v>100</v>
       </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
       <c r="O20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="1">
         <v>1</v>
       </c>
       <c r="R20" s="1">
-        <v>2</v>
-      </c>
-      <c r="S20" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3002</v>
       </c>
@@ -2245,55 +2314,58 @@
         <v>88</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="1">
-        <v>2</v>
-      </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
         <v>100</v>
       </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
       <c r="O21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="1">
         <v>1</v>
       </c>
       <c r="R21" s="1">
-        <v>2</v>
-      </c>
-      <c r="S21" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3003</v>
       </c>
@@ -2307,55 +2379,58 @@
         <v>108</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>100</v>
       </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
       <c r="O22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="1">
         <v>1</v>
       </c>
       <c r="R22" s="1">
-        <v>2</v>
-      </c>
-      <c r="S22" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>2</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3004</v>
       </c>
@@ -2369,55 +2444,58 @@
         <v>105</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>4</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
         <v>100</v>
       </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
       <c r="O23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>2</v>
-      </c>
-      <c r="S23" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>2</v>
+      </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3005</v>
       </c>
@@ -2431,22 +2509,22 @@
         <v>121</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
         <v>30</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>10</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="1">
-        <v>2</v>
-      </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -2455,25 +2533,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>100</v>
       </c>
-      <c r="N24" s="1">
-        <v>3</v>
-      </c>
       <c r="O24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="1">
         <v>1</v>
       </c>
       <c r="R24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>3006</v>
       </c>
@@ -2490,17 +2571,17 @@
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
@@ -2511,25 +2592,28 @@
         <v>0</v>
       </c>
       <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>100</v>
       </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
       <c r="O25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1">
         <v>5</v>
       </c>
-      <c r="Q25" s="1">
-        <v>1</v>
-      </c>
       <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3007</v>
       </c>
@@ -2543,49 +2627,52 @@
         <v>133</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="1">
-        <v>2</v>
-      </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
         <v>100</v>
       </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
       <c r="O26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
       </c>
       <c r="R26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3008</v>
       </c>
@@ -2599,61 +2686,64 @@
         <v>146</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="1">
-        <v>3</v>
-      </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
         <v>4</v>
       </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
       <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
         <v>75</v>
       </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
       <c r="O27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>2</v>
       </c>
       <c r="S27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>4001</v>
       </c>
@@ -2667,55 +2757,58 @@
         <v>107</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="1">
-        <v>3</v>
-      </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
         <v>100</v>
       </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
       <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
         <v>4</v>
       </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
       <c r="Q28" s="1">
         <v>1</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5001</v>
       </c>
@@ -2729,43 +2822,46 @@
         <v>61</v>
       </c>
       <c r="E29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
+      <c r="N29" s="1"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>5002</v>
       </c>
@@ -2779,43 +2875,46 @@
         <v>63</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
+      <c r="N30" s="1"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>5003</v>
       </c>
@@ -2829,43 +2928,46 @@
         <v>65</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
         <v>5</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>6001</v>
       </c>
@@ -2879,59 +2981,62 @@
         <v>140</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1">
         <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
         <v>90</v>
       </c>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
       <c r="O32" s="1">
         <v>1</v>
       </c>
       <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
         <v>4</v>
       </c>
-      <c r="Q32" s="1">
-        <v>2</v>
-      </c>
       <c r="R32" s="1">
+        <v>2</v>
+      </c>
+      <c r="S32" s="1">
         <v>7</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <v>6</v>
       </c>
-      <c r="T32" s="1">
-        <v>3</v>
-      </c>
       <c r="U32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>6002</v>
       </c>
@@ -2945,59 +3050,62 @@
         <v>141</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
         <v>6</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>4</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1">
         <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
         <v>90</v>
       </c>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
       <c r="O33" s="1">
         <v>1</v>
       </c>
       <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
         <v>4</v>
       </c>
-      <c r="Q33" s="1">
-        <v>2</v>
-      </c>
       <c r="R33" s="1">
+        <v>2</v>
+      </c>
+      <c r="S33" s="1">
         <v>7</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>6</v>
       </c>
-      <c r="T33" s="1">
-        <v>3</v>
-      </c>
       <c r="U33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>6003</v>
       </c>
@@ -3011,59 +3119,62 @@
         <v>142</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
         <v>6</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
       <c r="J34" s="1">
         <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
         <v>90</v>
       </c>
-      <c r="N34" s="1">
-        <v>1</v>
-      </c>
       <c r="O34" s="1">
         <v>1</v>
       </c>
       <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
         <v>4</v>
       </c>
-      <c r="Q34" s="1">
-        <v>2</v>
-      </c>
       <c r="R34" s="1">
+        <v>2</v>
+      </c>
+      <c r="S34" s="1">
         <v>7</v>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <v>6</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>4</v>
       </c>
-      <c r="U34" s="1">
-        <v>0</v>
-      </c>
       <c r="V34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>6004</v>
       </c>
@@ -3077,59 +3188,62 @@
         <v>143</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
         <v>-30</v>
       </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
       <c r="J35" s="1">
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
         <v>100</v>
       </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
       <c r="O35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1">
         <v>4</v>
       </c>
-      <c r="Q35" s="1">
-        <v>1</v>
-      </c>
       <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
         <v>7</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <v>-30</v>
       </c>
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
       <c r="U35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>6005</v>
       </c>
@@ -3143,42 +3257,45 @@
         <v>119</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
         <v>100</v>
       </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
       <c r="O36" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P36" s="1">
         <v>4</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
         <v>0</v>
       </c>
     </row>
